--- a/thresholds/AL/media-studies/media-studies-thresholds.xlsx
+++ b/thresholds/AL/media-studies/media-studies-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,30 +693,30 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>KX 03,21,41,81/91</t>
+          <t>HX 21,81/</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="D8" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="F8" t="n">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="G8" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>47</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -728,7 +728,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>KY 03,22,42,81/91</t>
+          <t>KX 03,21,41,81/91</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -763,30 +763,30 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>P3 60,80</t>
+          <t>KY 03,22,42,81/91</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="G10" t="n">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -798,205 +798,205 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AX 01,03,21,41</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C11" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="F11" t="n">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="G11" t="n">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AY 01,03,22,42</t>
+          <t>P3 60,80</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="D12" t="n">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="E12" t="n">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="F12" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="G12" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AZ 01,03,23,43</t>
+          <t>SX 01,21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="E13" t="n">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="F13" t="n">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="G13" t="n">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>BX 03,41,87</t>
+          <t>SY 01,22</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="E14" t="n">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="F14" t="n">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="G14" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BY 03,42,88</t>
+          <t>SZ 01,23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="E15" t="n">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="F15" t="n">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BZ 03,43,89</t>
+          <t>AX 01,03,21,41</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>200</v>
       </c>
       <c r="C16" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D16" t="n">
         <v>156</v>
       </c>
       <c r="E16" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" t="n">
         <v>117</v>
       </c>
       <c r="G16" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1008,30 +1008,30 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CX 03,41,67</t>
+          <t>AY 01,03,22,42</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D17" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E17" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F17" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" t="n">
         <v>99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1043,30 +1043,30 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CY 03,42,67</t>
+          <t>AZ 01,03,23,43</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>200</v>
       </c>
       <c r="C18" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D18" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E18" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" t="n">
         <v>99</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1078,30 +1078,30 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>KX 03,21,41,81/91</t>
+          <t>BX 03,41,87</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>200</v>
       </c>
       <c r="C19" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" t="n">
         <v>156</v>
       </c>
       <c r="E19" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F19" t="n">
         <v>117</v>
       </c>
       <c r="G19" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1113,30 +1113,30 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>KY 03,22,42,81/91</t>
+          <t>BY 03,42,88</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>200</v>
       </c>
       <c r="C20" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" t="n">
         <v>156</v>
       </c>
       <c r="E20" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" t="n">
         <v>117</v>
       </c>
       <c r="G20" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1148,30 +1148,30 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>LX 21,41,81/91,83/93</t>
+          <t>BZ 03,43,89</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>200</v>
       </c>
       <c r="C21" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" t="n">
         <v>156</v>
       </c>
       <c r="E21" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" t="n">
         <v>117</v>
       </c>
       <c r="G21" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1183,30 +1183,30 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>LY 22,42,81/91,83/93</t>
+          <t>CX 03,41,67</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>200</v>
       </c>
       <c r="C22" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D22" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E22" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F22" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G22" t="n">
         <v>99</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1218,7 +1218,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AX 01,03,21,41</t>
+          <t>CY 03,42,67</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1228,102 +1228,102 @@
         <v>178</v>
       </c>
       <c r="D23" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E23" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F23" t="n">
         <v>118</v>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AY 01,03,22,42</t>
+          <t>HX 21,81/91</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="E24" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F24" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AZ 01,03,23,43</t>
+          <t>HY 22,81/91</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="E25" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F25" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BX 03,41,87</t>
+          <t>KX 03,21,41,81/91</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BY 03,42,88</t>
+          <t>KY 03,22,42,81/91</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1386,14 +1386,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>BZ 03,43,89</t>
+          <t>LX 21,41,81/91,83/93</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1421,154 +1421,154 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>CX 03,41,67</t>
+          <t>LY 22,42,81/91,83/93</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>200</v>
       </c>
       <c r="C29" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D29" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E29" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F29" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G29" t="n">
         <v>99</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>CY 03,42,67</t>
+          <t>SX 01,21</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="E30" t="n">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="F30" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G30" t="n">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>KX 03,21,41,81/91</t>
+          <t>SY 01,22</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="E31" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F31" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>KY 03,22,42,81/91</t>
+          <t>SZ 01,23</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C32" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="E32" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="F32" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03,04</t>
+          <t>AX 01,03,21,41</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1578,172 +1578,172 @@
         <v>178</v>
       </c>
       <c r="D33" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" t="n">
         <v>118</v>
       </c>
       <c r="G33" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>C 03,04,67</t>
+          <t>AY 01,03,22,42</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>200</v>
       </c>
       <c r="C34" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D34" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E34" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G34" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>EY 03,04,88</t>
+          <t>AZ 01,03,23,43</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>200</v>
       </c>
       <c r="C35" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D35" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E35" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G35" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03,04</t>
+          <t>BX 03,41,87</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>200</v>
       </c>
       <c r="C36" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D36" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E36" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F36" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" t="n">
         <v>99</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>C 03,04,67</t>
+          <t>BY 03,42,88</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>200</v>
       </c>
       <c r="C37" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D37" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E37" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F37" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" t="n">
         <v>99</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>EX 03,04,87</t>
+          <t>BZ 03,43,89</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1771,49 +1771,49 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>EY 03,04,88</t>
+          <t>CX 03,41,67</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>200</v>
       </c>
       <c r="C39" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D39" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E39" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F39" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G39" t="n">
         <v>99</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03,04</t>
+          <t>CY 03,42,67</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1829,61 +1829,61 @@
         <v>138</v>
       </c>
       <c r="F40" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>C 03,04,67</t>
+          <t>HX 21,81</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C41" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="E41" t="n">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="F41" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G41" t="n">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>EX 03,04,87</t>
+          <t>KX 03,21,41,81/91</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1911,14 +1911,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>EY 03,04,88</t>
+          <t>KY 03,22,42,81/91</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1945,6 +1945,706 @@
         </is>
       </c>
       <c r="I43" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>SX 01,21</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>100</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>79</v>
+      </c>
+      <c r="E44" t="n">
+        <v>68</v>
+      </c>
+      <c r="F44" t="n">
+        <v>59</v>
+      </c>
+      <c r="G44" t="n">
+        <v>51</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>SY 01,22</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>100</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>79</v>
+      </c>
+      <c r="E45" t="n">
+        <v>68</v>
+      </c>
+      <c r="F45" t="n">
+        <v>59</v>
+      </c>
+      <c r="G45" t="n">
+        <v>51</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>SZ 01,23</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>100</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79</v>
+      </c>
+      <c r="E46" t="n">
+        <v>68</v>
+      </c>
+      <c r="F46" t="n">
+        <v>59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>51</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>A 01,02,03,04</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>200</v>
+      </c>
+      <c r="C47" t="n">
+        <v>178</v>
+      </c>
+      <c r="D47" t="n">
+        <v>158</v>
+      </c>
+      <c r="E47" t="n">
+        <v>138</v>
+      </c>
+      <c r="F47" t="n">
+        <v>118</v>
+      </c>
+      <c r="G47" t="n">
+        <v>99</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>C 03,04,67</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>200</v>
+      </c>
+      <c r="C48" t="n">
+        <v>175</v>
+      </c>
+      <c r="D48" t="n">
+        <v>155</v>
+      </c>
+      <c r="E48" t="n">
+        <v>135</v>
+      </c>
+      <c r="F48" t="n">
+        <v>115</v>
+      </c>
+      <c r="G48" t="n">
+        <v>96</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>EY 03,04,88</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>200</v>
+      </c>
+      <c r="C49" t="n">
+        <v>175</v>
+      </c>
+      <c r="D49" t="n">
+        <v>156</v>
+      </c>
+      <c r="E49" t="n">
+        <v>137</v>
+      </c>
+      <c r="F49" t="n">
+        <v>117</v>
+      </c>
+      <c r="G49" t="n">
+        <v>97</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>H 02,81/91</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>100</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>80</v>
+      </c>
+      <c r="E50" t="n">
+        <v>70</v>
+      </c>
+      <c r="F50" t="n">
+        <v>60</v>
+      </c>
+      <c r="G50" t="n">
+        <v>50</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>S 01,02</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>100</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>80</v>
+      </c>
+      <c r="E51" t="n">
+        <v>70</v>
+      </c>
+      <c r="F51" t="n">
+        <v>60</v>
+      </c>
+      <c r="G51" t="n">
+        <v>50</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>A 01,02,03,04</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>200</v>
+      </c>
+      <c r="C52" t="n">
+        <v>178</v>
+      </c>
+      <c r="D52" t="n">
+        <v>158</v>
+      </c>
+      <c r="E52" t="n">
+        <v>138</v>
+      </c>
+      <c r="F52" t="n">
+        <v>118</v>
+      </c>
+      <c r="G52" t="n">
+        <v>99</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>C 03,04,67</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>200</v>
+      </c>
+      <c r="C53" t="n">
+        <v>178</v>
+      </c>
+      <c r="D53" t="n">
+        <v>158</v>
+      </c>
+      <c r="E53" t="n">
+        <v>138</v>
+      </c>
+      <c r="F53" t="n">
+        <v>118</v>
+      </c>
+      <c r="G53" t="n">
+        <v>99</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>EX 03,04,87</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>200</v>
+      </c>
+      <c r="C54" t="n">
+        <v>176</v>
+      </c>
+      <c r="D54" t="n">
+        <v>156</v>
+      </c>
+      <c r="E54" t="n">
+        <v>136</v>
+      </c>
+      <c r="F54" t="n">
+        <v>117</v>
+      </c>
+      <c r="G54" t="n">
+        <v>99</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>EY 03,04,88</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>200</v>
+      </c>
+      <c r="C55" t="n">
+        <v>176</v>
+      </c>
+      <c r="D55" t="n">
+        <v>156</v>
+      </c>
+      <c r="E55" t="n">
+        <v>136</v>
+      </c>
+      <c r="F55" t="n">
+        <v>117</v>
+      </c>
+      <c r="G55" t="n">
+        <v>99</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>H 02,81/91</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>100</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>80</v>
+      </c>
+      <c r="E56" t="n">
+        <v>70</v>
+      </c>
+      <c r="F56" t="n">
+        <v>60</v>
+      </c>
+      <c r="G56" t="n">
+        <v>50</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>S 01,02</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>100</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>80</v>
+      </c>
+      <c r="E57" t="n">
+        <v>70</v>
+      </c>
+      <c r="F57" t="n">
+        <v>60</v>
+      </c>
+      <c r="G57" t="n">
+        <v>50</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>A 01,02,03,04</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>200</v>
+      </c>
+      <c r="C58" t="n">
+        <v>178</v>
+      </c>
+      <c r="D58" t="n">
+        <v>158</v>
+      </c>
+      <c r="E58" t="n">
+        <v>138</v>
+      </c>
+      <c r="F58" t="n">
+        <v>119</v>
+      </c>
+      <c r="G58" t="n">
+        <v>100</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>C 03,04,67</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>200</v>
+      </c>
+      <c r="C59" t="n">
+        <v>178</v>
+      </c>
+      <c r="D59" t="n">
+        <v>158</v>
+      </c>
+      <c r="E59" t="n">
+        <v>138</v>
+      </c>
+      <c r="F59" t="n">
+        <v>118</v>
+      </c>
+      <c r="G59" t="n">
+        <v>99</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>EX 03,04,87</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>200</v>
+      </c>
+      <c r="C60" t="n">
+        <v>178</v>
+      </c>
+      <c r="D60" t="n">
+        <v>157</v>
+      </c>
+      <c r="E60" t="n">
+        <v>136</v>
+      </c>
+      <c r="F60" t="n">
+        <v>118</v>
+      </c>
+      <c r="G60" t="n">
+        <v>100</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>EY 03,04,88</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>200</v>
+      </c>
+      <c r="C61" t="n">
+        <v>178</v>
+      </c>
+      <c r="D61" t="n">
+        <v>157</v>
+      </c>
+      <c r="E61" t="n">
+        <v>136</v>
+      </c>
+      <c r="F61" t="n">
+        <v>118</v>
+      </c>
+      <c r="G61" t="n">
+        <v>100</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>H 02,81/91</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>100</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>80</v>
+      </c>
+      <c r="E62" t="n">
+        <v>70</v>
+      </c>
+      <c r="F62" t="n">
+        <v>60</v>
+      </c>
+      <c r="G62" t="n">
+        <v>51</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>S 01,02</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>100</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>80</v>
+      </c>
+      <c r="E63" t="n">
+        <v>70</v>
+      </c>
+      <c r="F63" t="n">
+        <v>60</v>
+      </c>
+      <c r="G63" t="n">
+        <v>51</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
